--- a/input_spreadsheets/Bangladesh/2016Oct/subregionSpreadsheets/Sylhet.xlsx
+++ b/input_spreadsheets/Bangladesh/2016Oct/subregionSpreadsheets/Sylhet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12400" yWindow="-21140" windowWidth="19340" windowHeight="21140" tabRatio="500" firstSheet="17" activeTab="19"/>
+    <workbookView xWindow="-2220" yWindow="-21140" windowWidth="23020" windowHeight="21140" tabRatio="500" firstSheet="20" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="demographics" sheetId="1" r:id="rId1"/>
@@ -314,7 +314,7 @@
     <author>Janka Petravic</author>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0">
+    <comment ref="D4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -336,7 +336,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0">
+    <comment ref="E4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -358,7 +358,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G7" authorId="0">
+    <comment ref="G6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -385,7 +385,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="80">
   <si>
     <t>indicators</t>
   </si>
@@ -582,9 +582,6 @@
     <t>Vitamin A supplementation</t>
   </si>
   <si>
-    <t>Multiple micronutrient supplementation</t>
-  </si>
-  <si>
     <t>pregnant women</t>
   </si>
   <si>
@@ -625,6 +622,9 @@
   </si>
   <si>
     <t>Food security &amp; education</t>
+  </si>
+  <si>
+    <t>Antenatal micronutrient supplementation</t>
   </si>
 </sst>
 </file>
@@ -806,7 +806,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -838,7 +838,6 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1511,7 +1510,7 @@
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B5" s="3">
         <v>0.56799999999999995</v>
@@ -1519,17 +1518,17 @@
     </row>
     <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B6" s="24">
+        <v>71</v>
+      </c>
+      <c r="B6" s="23">
         <v>0.51200000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B7" s="25">
+        <v>72</v>
+      </c>
+      <c r="B7" s="24">
         <v>0.20599999999999999</v>
       </c>
     </row>
@@ -2746,7 +2745,7 @@
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
@@ -2806,7 +2805,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B1" t="s">
         <v>11</v>
@@ -2914,7 +2913,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2945,7 +2944,7 @@
     </row>
     <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B2" s="7">
         <v>5.16</v>
@@ -2954,22 +2953,34 @@
         <v>5.16</v>
       </c>
       <c r="D2" s="7">
+        <v>1</v>
+      </c>
+      <c r="E2" s="11">
+        <v>1</v>
+      </c>
+      <c r="F2" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="10">
         <v>1.82</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E3" s="12">
         <v>1.82</v>
       </c>
-      <c r="F2" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="F3" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2"/>
@@ -3190,10 +3201,10 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3220,16 +3231,16 @@
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B2" s="19">
-        <v>0</v>
+        <v>64</v>
+      </c>
+      <c r="B2" s="18">
+        <v>0.55500000000000005</v>
       </c>
       <c r="C2" s="2">
         <v>0.85</v>
       </c>
       <c r="D2" s="18">
-        <v>7.08</v>
+        <v>0.35</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="13"/>
@@ -3237,16 +3248,16 @@
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="B3" s="18">
-        <v>0.55500000000000005</v>
+        <v>0.16</v>
       </c>
       <c r="C3" s="2">
         <v>0.85</v>
       </c>
       <c r="D3" s="18">
-        <v>0.35</v>
+        <v>3.56</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="13"/>
@@ -3257,13 +3268,13 @@
         <v>76</v>
       </c>
       <c r="B4" s="18">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="C4" s="2">
         <v>0.85</v>
       </c>
       <c r="D4" s="18">
-        <v>3.56</v>
+        <v>48</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="13"/>
@@ -3271,41 +3282,41 @@
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B5" s="18">
-        <v>0</v>
+        <v>0.61</v>
       </c>
       <c r="C5" s="2">
         <v>0.85</v>
       </c>
       <c r="D5" s="18">
-        <v>48</v>
+        <v>3.56</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="13"/>
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="2" t="s">
-        <v>75</v>
+      <c r="A6" t="s">
+        <v>77</v>
       </c>
       <c r="B6" s="18">
-        <v>0.61</v>
+        <v>0</v>
       </c>
       <c r="C6" s="2">
         <v>0.85</v>
       </c>
       <c r="D6" s="18">
-        <v>3.56</v>
+        <v>25</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="13"/>
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>78</v>
+      <c r="A7" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="B7" s="18">
         <v>0</v>
@@ -3314,27 +3325,17 @@
         <v>0.85</v>
       </c>
       <c r="D7" s="18">
-        <v>25</v>
+        <v>1.8</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="13"/>
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B8" s="18">
-        <v>0</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0.85</v>
-      </c>
-      <c r="D8" s="18">
-        <v>1.8</v>
-      </c>
+      <c r="B8" s="2"/>
+      <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="13"/>
+      <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3381,10 +3382,7 @@
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
+      <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="2"/>
@@ -3429,10 +3427,6 @@
     <row r="26" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
-    </row>
-    <row r="27" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3441,10 +3435,10 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3477,14 +3471,14 @@
         <v>15</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="B2" s="5">
         <v>0</v>
@@ -3493,7 +3487,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" s="5">
         <v>1</v>
@@ -3507,7 +3501,7 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="B3" s="5">
         <v>0</v>
@@ -3522,7 +3516,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" s="5">
         <v>0</v>
@@ -3536,13 +3530,15 @@
         <v>0</v>
       </c>
       <c r="C4" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="5">
-        <v>1</v>
+        <f>demographics!$B$6</f>
+        <v>0.51200000000000001</v>
       </c>
       <c r="E4" s="5">
-        <v>1</v>
+        <f>demographics!$B$6</f>
+        <v>0.51200000000000001</v>
       </c>
       <c r="F4" s="5">
         <v>0</v>
@@ -3553,55 +3549,54 @@
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" s="5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
         <v>77</v>
       </c>
-      <c r="B5" s="5">
-        <v>0</v>
-      </c>
-      <c r="C5" s="5">
-        <v>0</v>
-      </c>
-      <c r="D5" s="5">
+      <c r="B6" s="5">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5">
         <f>demographics!$B$6</f>
         <v>0.51200000000000001</v>
       </c>
-      <c r="E5" s="5">
-        <f>demographics!$B$6</f>
-        <v>0.51200000000000001</v>
-      </c>
-      <c r="F5" s="5">
-        <v>0</v>
-      </c>
-      <c r="G5" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B6" s="5">
-        <v>1</v>
-      </c>
-      <c r="C6" s="5">
-        <v>1</v>
-      </c>
-      <c r="D6" s="5">
-        <v>1</v>
-      </c>
-      <c r="E6" s="5">
-        <v>1</v>
-      </c>
-      <c r="F6" s="5">
-        <v>0</v>
-      </c>
-      <c r="G6" s="5">
-        <v>0</v>
-      </c>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>78</v>
+      <c r="A7" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="B7" s="5">
         <v>0</v>
@@ -3619,32 +3614,15 @@
         <v>0</v>
       </c>
       <c r="G7" s="5">
-        <f>demographics!$B$6</f>
-        <v>0.51200000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B8" s="5">
-        <v>0</v>
-      </c>
-      <c r="C8" s="5">
-        <v>0</v>
-      </c>
-      <c r="D8" s="5">
-        <v>0</v>
-      </c>
-      <c r="E8" s="5">
-        <v>0</v>
-      </c>
-      <c r="F8" s="5">
-        <v>0</v>
-      </c>
-      <c r="G8" s="5">
-        <v>1</v>
-      </c>
+      <c r="B8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="2"/>
@@ -3690,10 +3668,7 @@
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
+      <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="2"/>
@@ -3738,10 +3713,6 @@
     <row r="26" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
-    </row>
-    <row r="27" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3755,7 +3726,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A5"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3768,7 +3739,7 @@
         <v>56</v>
       </c>
       <c r="B1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C1" t="s">
         <v>46</v>
@@ -3785,10 +3756,10 @@
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C2" s="14">
         <v>0.21</v>
@@ -3805,14 +3776,14 @@
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C3" s="14">
-        <f>demographics!$B$5 * 'Interventions target population'!$G$7</f>
+        <f>demographics!$B$5 * 'Interventions target population'!$G$6</f>
         <v>0.29081599999999996</v>
       </c>
       <c r="D3" s="14">
-        <f>demographics!$B$5 * 'Interventions target population'!$G$7</f>
+        <f>demographics!$B$5 * 'Interventions target population'!$G$6</f>
         <v>0.29081599999999996</v>
       </c>
       <c r="E3" s="14">
@@ -3823,11 +3794,11 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>65</v>
+      <c r="A4" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C4" s="14">
         <v>0.1</v>
@@ -3844,7 +3815,7 @@
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C5" s="14">
         <v>1</v>
@@ -3866,10 +3837,10 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A5"/>
+      <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3879,7 +3850,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>10</v>
@@ -3902,7 +3873,7 @@
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>24</v>
@@ -3914,17 +3885,16 @@
         <v>0</v>
       </c>
       <c r="E2" s="2">
-        <v>0</v>
-      </c>
-      <c r="F2" s="22">
-        <v>0.29699999999999999</v>
-      </c>
-      <c r="G2" s="22">
-        <v>0.29699999999999999</v>
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="F2" s="21">
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="G2" s="21">
+        <v>0.33500000000000002</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>25</v>
       </c>
@@ -3937,55 +3907,23 @@
       <c r="E3" s="2">
         <v>0</v>
       </c>
-      <c r="F3" s="22">
-        <v>0.29699999999999999</v>
-      </c>
-      <c r="G3" s="22">
-        <v>0.29699999999999999</v>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0.33500000000000002</v>
-      </c>
-      <c r="F4" s="22">
-        <v>0.33500000000000002</v>
-      </c>
-      <c r="G4" s="22">
-        <v>0.33500000000000002</v>
-      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0</v>
-      </c>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="2"/>
@@ -3993,20 +3931,9 @@
       <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4015,10 +3942,10 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A5"/>
+      <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4028,7 +3955,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>10</v>
@@ -4051,7 +3978,7 @@
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>24</v>
@@ -4063,17 +3990,16 @@
         <v>0</v>
       </c>
       <c r="E2" s="2">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F2" s="2">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="G2" s="2">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>25</v>
       </c>
@@ -4087,54 +4013,22 @@
         <v>0</v>
       </c>
       <c r="F3" s="2">
-        <v>0.51</v>
+        <v>0</v>
       </c>
       <c r="G3" s="2">
-        <v>0.51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="G4" s="2">
-        <v>0.3</v>
-      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0</v>
-      </c>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="2"/>
@@ -4142,20 +4036,9 @@
       <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4164,10 +4047,10 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A5"/>
+      <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4177,7 +4060,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>10</v>
@@ -4200,7 +4083,7 @@
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>24</v>
@@ -4212,17 +4095,16 @@
         <v>0</v>
       </c>
       <c r="E2" s="2">
-        <v>0</v>
+        <v>0.62</v>
       </c>
       <c r="F2" s="2">
-        <v>0.65</v>
+        <v>0.62</v>
       </c>
       <c r="G2" s="2">
-        <v>0.65</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>25</v>
       </c>
@@ -4236,54 +4118,22 @@
         <v>0</v>
       </c>
       <c r="F3" s="2">
-        <v>0.52</v>
+        <v>0</v>
       </c>
       <c r="G3" s="2">
-        <v>0.52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0.62</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0.62</v>
-      </c>
-      <c r="G4" s="2">
-        <v>0.62</v>
-      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0</v>
-      </c>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="2"/>
@@ -4291,20 +4141,9 @@
       <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4763,82 +4602,82 @@
       <c r="A2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="20">
+      <c r="C2" s="19">
         <v>30.861091339848567</v>
       </c>
-      <c r="D2" s="20">
+      <c r="D2" s="19">
         <v>30.20949651362773</v>
       </c>
-      <c r="E2" s="20">
+      <c r="E2" s="19">
         <v>23.348033583087684</v>
       </c>
-      <c r="F2" s="20">
+      <c r="F2" s="19">
         <v>13.362535680259539</v>
       </c>
-      <c r="G2" s="20">
+      <c r="G2" s="19">
         <v>12.074005453948798</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="19">
         <v>10.987977994822613</v>
       </c>
-      <c r="D3" s="20">
+      <c r="D3" s="19">
         <v>10.755980054982748</v>
       </c>
-      <c r="E3" s="20">
+      <c r="E3" s="19">
         <v>14.944149279931784</v>
       </c>
-      <c r="F3" s="20">
+      <c r="F3" s="19">
         <v>16.159125894570575</v>
       </c>
-      <c r="G3" s="20">
+      <c r="G3" s="19">
         <v>15.825456628311011</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="19">
         <v>21.26389015426647</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="19">
         <v>20.814928688281057</v>
       </c>
-      <c r="E4" s="20">
+      <c r="E4" s="19">
         <v>29.99798546252271</v>
       </c>
-      <c r="F4" s="20">
+      <c r="F4" s="19">
         <v>50.483368568297394</v>
       </c>
-      <c r="G4" s="20">
+      <c r="G4" s="19">
         <v>57.43249622547193</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="19">
         <v>6.6647504660985843</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="19">
         <v>6.5240322758719387</v>
       </c>
-      <c r="E5" s="20">
+      <c r="E5" s="19">
         <v>8.4125679346769751</v>
       </c>
-      <c r="F5" s="20">
+      <c r="F5" s="19">
         <v>23.0416682749415</v>
       </c>
-      <c r="G5" s="20">
+      <c r="G5" s="19">
         <v>22.869715526621036</v>
       </c>
     </row>
@@ -4846,82 +4685,82 @@
       <c r="A6" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="21">
+      <c r="C6" s="20">
         <v>57.963306739694545</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="20">
         <v>56.739481231830254</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E6" s="20">
         <v>58.537563383543215</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6" s="20">
         <v>54.927013571265213</v>
       </c>
-      <c r="G6" s="21">
+      <c r="G6" s="20">
         <v>49.024110473442548</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="21">
+      <c r="C7" s="20">
         <v>23.824380903379694</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="20">
         <v>23.321357754794153</v>
       </c>
-      <c r="E7" s="21">
+      <c r="E7" s="20">
         <v>23.121174426426823</v>
       </c>
-      <c r="F7" s="21">
+      <c r="F7" s="20">
         <v>30.074317621882813</v>
       </c>
-      <c r="G7" s="21">
+      <c r="G7" s="20">
         <v>38.495126556009993</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C8" s="20">
         <v>16.39184382769281</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="20">
         <v>16.045749760158866</v>
       </c>
-      <c r="E8" s="21">
+      <c r="E8" s="20">
         <v>13.799344793736633</v>
       </c>
-      <c r="F8" s="21">
+      <c r="F8" s="20">
         <v>11.785229881793363</v>
       </c>
-      <c r="G8" s="21">
+      <c r="G8" s="20">
         <v>11.249537614439118</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="20">
         <v>3.5411778100915456</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9" s="20">
         <v>3.4664100996961489</v>
       </c>
-      <c r="E9" s="21">
+      <c r="E9" s="20">
         <v>3.74938235273257</v>
       </c>
-      <c r="F9" s="21">
+      <c r="F9" s="20">
         <v>2.9049879503087652</v>
       </c>
-      <c r="G9" s="21">
+      <c r="G9" s="20">
         <v>1.4879206574752211</v>
       </c>
     </row>
@@ -5085,19 +4924,19 @@
       <c r="A2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="26">
+      <c r="B2" s="25">
         <v>2.62</v>
       </c>
-      <c r="C2" s="26">
+      <c r="C2" s="25">
         <v>2.62</v>
       </c>
-      <c r="D2" s="26">
+      <c r="D2" s="25">
         <v>4.01</v>
       </c>
-      <c r="E2" s="26">
+      <c r="E2" s="25">
         <v>3.24</v>
       </c>
-      <c r="F2" s="26">
+      <c r="F2" s="25">
         <v>2.0699999999999998</v>
       </c>
     </row>
